--- a/student版本.xlsx
+++ b/student版本.xlsx
@@ -4,30 +4,17 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="9767"/>
+    <workbookView windowHeight="16120"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="60">
   <si>
     <t>Story ID</t>
   </si>
@@ -174,6 +161,63 @@
   </si>
   <si>
     <t>提供教育贷款计算器         提供职业规划相关的财务建议          支持未来财务目标设定</t>
+  </si>
+  <si>
+    <t>订阅管理与提醒</t>
+  </si>
+  <si>
+    <t xml:space="preserve">学生通常订阅各种在线服务，如音乐、视频、学习平台等，可能会忘记取消不需要的订阅，导致资金浪费。提供订阅管理功能，帮助学生跟踪所有订阅服务，设定提醒，避免不必要的开支。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> • 识别并列出所有订阅服务及扣款时间。
+ • 提供订阅提醒，避免自动续费带来的资金浪费。
+ • 提供订阅支出分析，帮助学生评估订阅的必要性。</t>
+  </si>
+  <si>
+    <t>信用评分与财务信用培养</t>
+  </si>
+  <si>
+    <t>许多学生在进入社会后才开始接触信用体系，缺乏信用管理经验。提供一个模拟信用评分系统，帮助学生养成良好的信用习惯，避免未来可能的财务风险。</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> • 提供虚拟信用评分，模拟信用管理机制。
+ • 根据消费行为、账单支付记录等提供信用建议。
+ • 教育学生如何建立良好的信用记录，避免过度负债。</t>
+  </si>
+  <si>
+    <t>多货币管理与留学财务助手</t>
+  </si>
+  <si>
+    <t>对于留学生或计划出国的学生，管理不同货币的资金是一个挑战。提供多货币支持，帮助学生进行汇率换算、国际支付跟踪，并管理跨境财务。</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> • 支持多种货币管理，提供实时汇率换算。
+ • 追踪国际交易，分析跨境消费习惯。
+ • 提供留学财务规划建议，如学费计算、海外生活成本预算等。</t>
+  </si>
+  <si>
+    <t>智能记账助手</t>
+  </si>
+  <si>
+    <t>许多学生没有养成记账的习惯，或者觉得手动记录过于麻烦。智能记账助手利用AI自动识别和分类消费记录，帮助学生轻松管理财务，并提供个性化的财务建议。</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> • AI 自动分类消费记录，减少手动输入的负担。
+ • 语音输入记账，提高操作便捷性。
+ • 提供智能财务建议，如优化消费、调整预算等。</t>
+  </si>
+  <si>
+    <t>兼职与收入管理</t>
+  </si>
+  <si>
+    <t xml:space="preserve">许多学生会选择兼职、接项目或进行副业，管理多渠道收入是一个挑战。提供收入管理功能，帮助学生跟踪兼职工资、项目收入，并计算税费或储蓄目标。
+</t>
+  </si>
+  <si>
+    <t>• 记录兼职收入，计算月度或年度总收入。
+ • 计算税后收入，帮助学生做好财务规划。
+ • 提供兼职收入与支出分析，确保资金流向清晰。</t>
   </si>
 </sst>
 </file>
@@ -1188,26 +1232,26 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C8" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <cols>
-    <col min="1" max="1" width="9.09259259259259" style="1" customWidth="1"/>
-    <col min="2" max="2" width="29.5462962962963" style="1" customWidth="1"/>
-    <col min="3" max="3" width="138.907407407407" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9.09259259259259" style="1"/>
-    <col min="5" max="5" width="28.3611111111111" style="1" customWidth="1"/>
-    <col min="6" max="7" width="19.8148148148148" style="1" customWidth="1"/>
-    <col min="8" max="8" width="17.0925925925926" style="1" customWidth="1"/>
-    <col min="9" max="9" width="24.8148148148148" style="1" customWidth="1"/>
-    <col min="10" max="10" width="26.2685185185185" style="1" customWidth="1"/>
+    <col min="1" max="1" width="9.09615384615385" style="1" customWidth="1"/>
+    <col min="2" max="2" width="29.5480769230769" style="1" customWidth="1"/>
+    <col min="3" max="3" width="138.903846153846" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9.09615384615385" style="1"/>
+    <col min="5" max="5" width="28.3653846153846" style="1" customWidth="1"/>
+    <col min="6" max="7" width="19.8173076923077" style="1" customWidth="1"/>
+    <col min="8" max="8" width="17.0961538461538" style="1" customWidth="1"/>
+    <col min="9" max="9" width="24.8173076923077" style="1" customWidth="1"/>
+    <col min="10" max="10" width="26.2692307692308" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="28.8" spans="1:10">
+    <row r="1" ht="17" spans="1:10">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1239,7 +1283,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" ht="100.8" spans="3:6">
+    <row r="2" ht="118" spans="3:6">
       <c r="C2" s="1" t="s">
         <v>10</v>
       </c>
@@ -1247,7 +1291,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" ht="100.8" spans="1:6">
+    <row r="3" ht="118" spans="1:6">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1264,7 +1308,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" ht="86.4" spans="1:6">
+    <row r="4" ht="101" spans="1:6">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1281,7 +1325,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" ht="86.4" spans="1:6">
+    <row r="5" ht="118" spans="1:6">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1298,7 +1342,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" ht="86.4" spans="1:6">
+    <row r="6" ht="101" spans="1:6">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1315,7 +1359,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" ht="86.4" spans="1:6">
+    <row r="7" ht="101" spans="1:6">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1332,7 +1376,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" ht="86.4" spans="1:6">
+    <row r="8" ht="101" spans="1:6">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1349,7 +1393,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" ht="72" spans="1:6">
+    <row r="9" ht="101" spans="1:6">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1366,7 +1410,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="10" ht="86.4" spans="1:6">
+    <row r="10" ht="118" spans="1:6">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1383,7 +1427,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="11" ht="86.4" spans="1:6">
+    <row r="11" ht="101" spans="1:6">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1400,7 +1444,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="12" ht="72" spans="1:6">
+    <row r="12" ht="84" spans="1:6">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1415,6 +1459,91 @@
       </c>
       <c r="F12" s="1" t="s">
         <v>44</v>
+      </c>
+    </row>
+    <row r="13" ht="152" spans="1:6">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14" ht="168" spans="1:6">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" ht="168" spans="1:6">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="16" ht="135" spans="1:6">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="17" ht="152" spans="1:6">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>
